--- a/data/health/indicator_7 breast female deaths.xlsx
+++ b/data/health/indicator_7 breast female deaths.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
